--- a/biology/Médecine/Umberto_Veronesi/Umberto_Veronesi.xlsx
+++ b/biology/Médecine/Umberto_Veronesi/Umberto_Veronesi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Umberto Veronesi (prononcé en italien [umˈbɛrto veroˈneːzi] ou [-ˈneːsi]), né le 28 novembre 1925 à Milan en Italie et mort le 8 novembre 2016 dans la même ville), est un oncologue et homme politique italien connu pour ses contributions à la prévention et au traitement du cancer du sein. Il
 obtient le 1er prix Galilée en 2007.
@@ -512,17 +524,19 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Umberto Veronesi est né à Milan le 28 novembre 1925[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Umberto Veronesi est né à Milan le 28 novembre 1925.
 Après avoir obtenu son diplôme de médecine et de chirurgie (1950), Umberto Veronesi a concentré ses études sur le domaine de l'oncologie. 
-En 1975, il est devenu directeur de l' Institut national des tumeurs. En 1982 il a fondé l'École européenne d'oncologie (Eso) en 1982. Président de l'Organisation européenne pour la recherche et le traitement du cancer (1985-1988) et de la Fédération des sociétés européennes du cancer (1991-1993)[2]. 
-Son activité clinique et de recherche s'est concentrée pendant plusieurs décennies sur la prévention et le soin du cancer. En particulier, il s'est occupé du carcinome mammaire. Umberto Veronesi a été le premier théoricien et un partisan de la quadrantectomie (it)[2],[1].
-Fondateur et président de la fondation (it) qui porte son nom, Umberto Veronesi a été directeur scientifique émérite de l'Institut européen d'oncologie[3], ainsi que de l'Institut national des tumeurs (it) de Milan de 1976 à 1994[2],[1].
-Affilié au Parti democrare italien, Umberto Veronesi a été sénateur et ministre de la Santé du 25 avril 2000 au 11 juin 2001 dans le gouvernement Amato II[2],[1].
-À plusieurs occasions il a soutenu la supériorité intellectuelle et morale de la femme sur l'homme[4],[5],[1].
-Il a également milité pour la défense des droits des animaux[2],[1].
-Umberto Veronesi est mort à Milan le 8 novembre 2016[6],[1].
+En 1975, il est devenu directeur de l' Institut national des tumeurs. En 1982 il a fondé l'École européenne d'oncologie (Eso) en 1982. Président de l'Organisation européenne pour la recherche et le traitement du cancer (1985-1988) et de la Fédération des sociétés européennes du cancer (1991-1993). 
+Son activité clinique et de recherche s'est concentrée pendant plusieurs décennies sur la prévention et le soin du cancer. En particulier, il s'est occupé du carcinome mammaire. Umberto Veronesi a été le premier théoricien et un partisan de la quadrantectomie (it),.
+Fondateur et président de la fondation (it) qui porte son nom, Umberto Veronesi a été directeur scientifique émérite de l'Institut européen d'oncologie, ainsi que de l'Institut national des tumeurs (it) de Milan de 1976 à 1994,.
+Affilié au Parti democrare italien, Umberto Veronesi a été sénateur et ministre de la Santé du 25 avril 2000 au 11 juin 2001 dans le gouvernement Amato II,.
+À plusieurs occasions il a soutenu la supériorité intellectuelle et morale de la femme sur l'homme.
+Il a également milité pour la défense des droits des animaux,.
+Umberto Veronesi est mort à Milan le 8 novembre 2016,.
 </t>
         </is>
       </c>
@@ -551,7 +565,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Da bambino avevo un sogno. Tra ricerca e cura, la mia lotta al tumore (2002) ;
 Una carezza per guarire (avec M. Pappagallo, 2004) ;
@@ -573,7 +589,7 @@
 Il mio mondo è donna. I valori di una vita (avec M.G. Luini), 2015 ;
 Confessioni di un anticonformista (avec A. Chirico), 2015 ;
 I segreti della lunga vita. Come mantenere corpo e mente in buona salute (avecM. Pappagallo), 2015 ;
-Senza paura (avec G. Pravettoni), 2015[2].</t>
+Senza paura (avec G. Pravettoni), 2015.</t>
         </is>
       </c>
     </row>
@@ -601,9 +617,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Chevalier grand-croix de l'ordre du Mérite de la République italienne[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chevalier grand-croix de l'ordre du Mérite de la République italienne.</t>
         </is>
       </c>
     </row>
